--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_prove_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_prove_1_1.xlsx
@@ -2220,7 +2220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Provence"]“It's all about saving lives. More lives.”
+    <t xml:space="preserve">[name="Provence"]'It's all about saving lives. More lives.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_prove_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_prove_1_1.xlsx
@@ -1596,7 +1596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1:35 PM \ Clear
+    <t xml:space="preserve">1:35 P.M. \ Clear
 </t>
   </si>
   <si>
@@ -1636,7 +1636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Medic Operator"]It’s true.
+    <t xml:space="preserve">[name="Medic Operator"]It's true.
 </t>
   </si>
   <si>
